--- a/medicine/Pharmacie/Classe_ATC_C05/Classe_ATC_C05.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_C05/Classe_ATC_C05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C05, dénommée « Vasoprotecteurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC05[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C05, dénommée « Vasoprotecteurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC05. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C05AA Corticostéroïdes
-C05AA01 Hydrocortisone
+          <t>C05AA Corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C05AA01 Hydrocortisone
 C05AA04 Prednisolone
 C05AA05 Bétaméthasone
 C05AA06 Fluorométholone
@@ -522,22 +539,123 @@
 C05AA09 Dexaméthasone
 C05AA10 acétoniure de fluocinolone
 C05AA11 Fluocinonide
-C05AA12 Triamcinolone
-C05AB Antibiotiques
-C05AD Anesthésiques locaux
-C05AD01 Lidocaïne
+C05AA12 Triamcinolone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C05A Traitement des hémorroïdes et des fissures anales pour usage topique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C05AD Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C05AD01 Lidocaïne
 C05AD02 Tétracaïne
 C05AD03 Benzocaïne
 C05AD04 Cinchocaïne
 C05AD05 Procaïne
 C05AD06 Oxétacaïne
-C05AD07 Pramocaïne
-C05AE Myorelaxants
-C05AE01 Trinitrate de glycéryle
+C05AD07 Pramocaïne</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C05A Traitement des hémorroïdes et des fissures anales pour usage topique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C05AE Myorelaxants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C05AE01 Trinitrate de glycéryle
 C05AE02 Dinitrate d'isosorbide
-C05AE03 Diltiazem
-C05AX Autres traitements des hémorroïdes et des fissures anales pour usage topique
-C05AX01 Aluminium préparations
+C05AE03 Diltiazem</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C05A Traitement des hémorroïdes et des fissures anales pour usage topique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C05AX Autres traitements des hémorroïdes et des fissures anales pour usage topique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C05AX01 Aluminium préparations
 C05AX02 Bismuth préparations, associations
 C05AX03 Autres préparations, associations
 C05AX04 Zinc préparations
@@ -545,89 +663,201 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>C05B Traitement antivarices</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C05BA Héparines ou héparinoïdes pour usage topique
-C05BA01 Organo-heparinoïde
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C05BA Héparines ou héparinoïdes pour usage topique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C05BA01 Organo-heparinoïde
 C05BA02 Apolate de sodium
 C05BA03 Héparine
 C05BA04 Polysulfate de pentosane
 C05BA51 Héparinoïde, associations
-C05BA53 Héparine, associations
-C05BB Agents sclérosants pour injection locale
-C05BB01 Oléate de monoéthanolamine
+C05BA53 Héparine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C05B Traitement antivarices</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C05BB Agents sclérosants pour injection locale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C05BB01 Oléate de monoéthanolamine
 C05BB02 Polidocanol
 C05BB03 Sucre inversé
 C05BB04 Tétradécylsulfate de sodium
 C05BB05 Phénol
-C05BB56 Glucose, associations
-C05BX Autres agents sclérosants
-C05BX01 Dobésilate de calcium
+C05BB56 Glucose, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C05B Traitement antivarices</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C05BX Autres agents sclérosants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C05BX01 Dobésilate de calcium
 C05BX51 Dobésilate de calcium, associations</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C05</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>C05C Stabilisateurs de capillaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C05CA Bioflavonoïdes
-C05CA01 Rutoside
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C05CA Bioflavonoïdes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C05CA01 Rutoside
 C05CA02 Monoxérutine
 C05CA03 Diosmine
 C05CA04 Troxérutine
 C05CA05 Hidrosmine
 C05CA51 Rutoside, associations
 C05CA53 Diosmine, associations
-C05CA54 Troxérutine, associations
-C05CX Autres stabilisateurs de capillaires
-C05CX01 Tribénoside
+C05CA54 Troxérutine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C05C Stabilisateurs de capillaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C05CX Autres stabilisateurs de capillaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C05CX01 Tribénoside
 C05CX02 Naftazone
 C05CX03 Hippocastani semen</t>
         </is>
